--- a/InputData/io-model/TLIM/Total Leontief Inverse Matrix.xlsx
+++ b/InputData/io-model/TLIM/Total Leontief Inverse Matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\add-outputs\TLIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\TLIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FEC16-F103-443A-A890-B2F63189A94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F6B54E-EDF4-4D09-870F-3AE40230A425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="148">
   <si>
     <t>Source:</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>TTL_97T98: Private households with employed persons</t>
+  </si>
+  <si>
+    <t>A domestic-only Leontief matrix filters out payments to foreign suppliers from the respending</t>
+  </si>
+  <si>
+    <t>calculations.  This type of Leontief matrix must be multiplied by a change in domestic (not total)</t>
+  </si>
+  <si>
+    <t>output by ISIC code, as it does not filter the direct output changes by which it is multiplied.</t>
+  </si>
+  <si>
+    <t>Conversely, a "Total" Leontief matrix must be multiplied by a change in total (not domestic)</t>
+  </si>
+  <si>
+    <t>output by ISIC code, as it cannot restore imports that were removed from the direct output changes</t>
+  </si>
+  <si>
+    <t>by which it is multiplied.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +685,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -727,6 +751,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1009,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1067,52 +1093,84 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
+      <c r="A13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="26"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>101</v>
       </c>
     </row>
